--- a/data_year/zb/批发和零售业/批发和零售业情况.xlsx
+++ b/data_year/zb/批发和零售业/批发和零售业情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,557 +473,337 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14424.8</v>
+      </c>
       <c r="C2" t="n">
-        <v>29784.06</v>
+        <v>248040.9</v>
       </c>
       <c r="D2" t="n">
-        <v>32265.47</v>
+        <v>276635.7</v>
       </c>
       <c r="E2" t="n">
-        <v>448.5335</v>
+        <v>852.2</v>
       </c>
       <c r="F2" t="n">
-        <v>3569.92</v>
+        <v>19816.8</v>
       </c>
       <c r="G2" t="n">
-        <v>25567</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>111770</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19604.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17795</v>
+      </c>
       <c r="C3" t="n">
-        <v>32489.0472</v>
+        <v>328160.3</v>
       </c>
       <c r="D3" t="n">
-        <v>35153.3</v>
+        <v>360525.9</v>
       </c>
       <c r="E3" t="n">
-        <v>404.5955</v>
+        <v>901.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3618.03</v>
+        <v>24979.3</v>
       </c>
       <c r="G3" t="n">
-        <v>25543</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>125223</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27230.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20004.8</v>
+      </c>
       <c r="C4" t="n">
-        <v>36885.94</v>
+        <v>378314.8</v>
       </c>
       <c r="D4" t="n">
-        <v>40090.3</v>
+        <v>410532.7</v>
       </c>
       <c r="E4" t="n">
-        <v>419.1096</v>
+        <v>1003.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3577.9</v>
+        <v>29000.6</v>
       </c>
       <c r="G4" t="n">
-        <v>26605</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>138865</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31524.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22452.6</v>
+      </c>
       <c r="C5" t="n">
-        <v>45383.9</v>
+        <v>451265.1</v>
       </c>
       <c r="D5" t="n">
-        <v>48613.2041</v>
+        <v>496603.8</v>
       </c>
       <c r="E5" t="n">
-        <v>406.7764</v>
+        <v>1139.6</v>
       </c>
       <c r="F5" t="n">
-        <v>3898.2</v>
+        <v>32422</v>
       </c>
       <c r="G5" t="n">
-        <v>27340</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>171973</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37358.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>23013.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>493664</v>
+      </c>
       <c r="D6" t="n">
-        <v>86928.60000000001</v>
+        <v>541319.8</v>
       </c>
       <c r="E6" t="n">
-        <v>507.675</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>1182</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38123.8</v>
+      </c>
       <c r="G6" t="n">
-        <v>52448</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>181612</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38571.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>22719.5</v>
+      </c>
       <c r="C7" t="n">
-        <v>87530.89999999999</v>
+        <v>468071.7</v>
       </c>
       <c r="D7" t="n">
-        <v>93151.3</v>
+        <v>515567.5</v>
       </c>
       <c r="E7" t="n">
-        <v>519.4657999999999</v>
+        <v>1173.6</v>
       </c>
       <c r="F7" t="n">
-        <v>7061</v>
+        <v>36591.7</v>
       </c>
       <c r="G7" t="n">
-        <v>47698</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>183077</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33943.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21924.7</v>
+      </c>
       <c r="C8" t="n">
-        <v>103139</v>
+        <v>506309.4</v>
       </c>
       <c r="D8" t="n">
-        <v>110054.8</v>
+        <v>558877.6</v>
       </c>
       <c r="E8" t="n">
-        <v>544.3149</v>
+        <v>1193.6</v>
       </c>
       <c r="F8" t="n">
-        <v>7629.6</v>
+        <v>38388.6</v>
       </c>
       <c r="G8" t="n">
-        <v>51788</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>193371</v>
+      </c>
+      <c r="H8" t="n">
+        <v>35355.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11154.4</v>
+        <v>23617.1</v>
       </c>
       <c r="C9" t="n">
-        <v>128912.5</v>
+        <v>572287.8</v>
       </c>
       <c r="D9" t="n">
-        <v>132740.8</v>
+        <v>630181.3</v>
       </c>
       <c r="E9" t="n">
-        <v>604.9</v>
+        <v>1183.8</v>
       </c>
       <c r="F9" t="n">
-        <v>9193.200000000001</v>
+        <v>43397</v>
       </c>
       <c r="G9" t="n">
-        <v>55737</v>
+        <v>200170</v>
       </c>
       <c r="H9" t="n">
-        <v>8871.700000000001</v>
+        <v>43743.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13837.5</v>
+        <v>26238.6</v>
       </c>
       <c r="C10" t="n">
-        <v>184039.3</v>
+        <v>616551.4</v>
       </c>
       <c r="D10" t="n">
-        <v>208229.8</v>
+        <v>691162.1</v>
       </c>
       <c r="E10" t="n">
-        <v>737.4</v>
+        <v>1184.5</v>
       </c>
       <c r="F10" t="n">
-        <v>15368.1</v>
+        <v>42117.2</v>
       </c>
       <c r="G10" t="n">
-        <v>100935</v>
+        <v>211515</v>
       </c>
       <c r="H10" t="n">
-        <v>14473.1</v>
+        <v>45121.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11174.1</v>
+        <v>27436.1</v>
       </c>
       <c r="C11" t="n">
-        <v>179202.9</v>
+        <v>709505.3</v>
       </c>
       <c r="D11" t="n">
-        <v>201166.2</v>
+        <v>782518.3</v>
       </c>
       <c r="E11" t="n">
-        <v>749</v>
+        <v>1213.9</v>
       </c>
       <c r="F11" t="n">
-        <v>16024</v>
+        <v>46410</v>
       </c>
       <c r="G11" t="n">
-        <v>95468</v>
+        <v>242544</v>
       </c>
       <c r="H11" t="n">
-        <v>13308</v>
+        <v>51415.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14424.8</v>
+        <v>27553.5734</v>
       </c>
       <c r="C12" t="n">
-        <v>248040.9</v>
+        <v>800298.9362</v>
       </c>
       <c r="D12" t="n">
-        <v>276635.7</v>
+        <v>864261.2064</v>
       </c>
       <c r="E12" t="n">
-        <v>852.2</v>
+        <v>1234.9701</v>
       </c>
       <c r="F12" t="n">
-        <v>19816.8</v>
+        <v>52982.9406</v>
       </c>
       <c r="G12" t="n">
-        <v>111770</v>
+        <v>276499</v>
       </c>
       <c r="H12" t="n">
-        <v>19604.7</v>
+        <v>54162.1161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17795</v>
+        <v>33537.3</v>
       </c>
       <c r="C13" t="n">
-        <v>328160.3</v>
+        <v>1037966.3</v>
       </c>
       <c r="D13" t="n">
-        <v>360525.9</v>
+        <v>1107727.2</v>
       </c>
       <c r="E13" t="n">
-        <v>901.1</v>
+        <v>1286.7</v>
       </c>
       <c r="F13" t="n">
-        <v>24979.3</v>
+        <v>54539.4</v>
       </c>
       <c r="G13" t="n">
-        <v>125223</v>
+        <v>318134</v>
       </c>
       <c r="H13" t="n">
-        <v>27230.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>20004.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>378314.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>410532.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1003.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>29000.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>138865</v>
-      </c>
-      <c r="H14" t="n">
-        <v>31524.7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>22452.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>451265.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>496603.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1139.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>32422</v>
-      </c>
-      <c r="G15" t="n">
-        <v>171973</v>
-      </c>
-      <c r="H15" t="n">
-        <v>37358.7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>23013.9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>493664</v>
-      </c>
-      <c r="D16" t="n">
-        <v>541319.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1182</v>
-      </c>
-      <c r="F16" t="n">
-        <v>38123.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>181612</v>
-      </c>
-      <c r="H16" t="n">
-        <v>38571.4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>22719.5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>468071.7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>515567.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1173.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>36591.7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>183077</v>
-      </c>
-      <c r="H17" t="n">
-        <v>33943.6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>21924.7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>506309.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>558877.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1193.6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>38388.6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>193371</v>
-      </c>
-      <c r="H18" t="n">
-        <v>35355.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>23617.1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>572287.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>630181.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1183.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>43397</v>
-      </c>
-      <c r="G19" t="n">
-        <v>200170</v>
-      </c>
-      <c r="H19" t="n">
-        <v>43743.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>26238.6</v>
-      </c>
-      <c r="C20" t="n">
-        <v>616551.4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>691162.1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1184.5</v>
-      </c>
-      <c r="F20" t="n">
-        <v>42117.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>211515</v>
-      </c>
-      <c r="H20" t="n">
-        <v>45121.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>27436.1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>709505.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>782518.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1213.9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>46410</v>
-      </c>
-      <c r="G21" t="n">
-        <v>242544</v>
-      </c>
-      <c r="H21" t="n">
-        <v>51415.4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>27553.5734</v>
-      </c>
-      <c r="C22" t="n">
-        <v>800298.9362</v>
-      </c>
-      <c r="D22" t="n">
-        <v>864261.2064</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1234.9701</v>
-      </c>
-      <c r="F22" t="n">
-        <v>52982.9406</v>
-      </c>
-      <c r="G22" t="n">
-        <v>276499</v>
-      </c>
-      <c r="H22" t="n">
-        <v>54162.1161</v>
+        <v>68022.2</v>
       </c>
     </row>
   </sheetData>
